--- a/opportunity.xlsx
+++ b/opportunity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -115,7 +115,7 @@
     <x:t>User should be able to input value for the  field.</x:t>
   </x:si>
   <x:si>
-    <x:t>Valid value for required field Stage, value should be equals Perception Analysis to submit for Approval towards to the assigned approver  @ Valid value for required field Stage, value should be equals Prospecting for Workflow Process.</x:t>
+    <x:t>Valid value for required field Stage  @ Valid value for required field Stage, value should be equals Prospecting for Workflow Process.</x:t>
   </x:si>
   <x:si>
     <x:t>Step 6</x:t>
@@ -124,7 +124,7 @@
     <x:t>Input valid value in the  Stage field.</x:t>
   </x:si>
   <x:si>
-    <x:t>Value accepted for Stage field.</x:t>
+    <x:t>User should be able to input value for the Stage field.</x:t>
   </x:si>
   <x:si>
     <x:t>Step 7</x:t>
@@ -136,61 +136,25 @@
     <x:t>User should be able to validate that a New Opportunity is created</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On the Opportunity page, Click on 'Submit for Approval' button to Submit for Approval.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pop-up confirming to submit the record for Approval is displayed.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'OK' button to submit the record for Approval.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The record will be displayed under Approval History section with the status 'Pending'.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>If the user is navigated to the 'Choose Approver' page, he should be able to input the Next Approver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is able to input the Next Approver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'Send to Next Approver' button.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The record will be displayed under Approval History section with the status 'Pending' and the updated Approver Name.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>For this Approval process, if e-mail notification is configured, validate that the Approver receives an e-mail with Approve/Reject request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the e-mail to either Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on 'Cancel' button to prevent submission for approval.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is redirected to the Opportunity Page</x:t>
+    <x:t>View Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Opportunity tab,  and select a Opportunity </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Opportunity Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Opportunity name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Opportunity Details</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_3</x:t>
@@ -199,49 +163,22 @@
     <x:t>TestScenario_3.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>View Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Opportunity tab,  and select a Opportunity </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Opportunity Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Opportunity name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Opportunity Details</x:t>
+    <x:t>Edit Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Opportunity tab,  and click on existing Opportunity to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Opportunity Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Opportunity is edited</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Opportunity tab,  and click on existing Opportunity to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Opportunity Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Opportunity is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Delete Opportunity</x:t>
@@ -343,8 +280,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J48" totalsRowShown="0">
-  <x:autoFilter ref="A1:J48"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J20" totalsRowShown="0">
+  <x:autoFilter ref="A1:J20"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -649,7 +586,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J48"/>
+  <x:dimension ref="A1:J20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -659,10 +596,10 @@
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="20.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="207.980625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="123.130625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="107.550625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="118.84062499999999" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="69.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="97.270625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -844,19 +781,27 @@
       <x:c r="J8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
+      <x:c r="A9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -868,31 +813,39 @@
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
     </x:row>
     <x:row r="11" spans="1:10">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
+      <x:c r="A11" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -902,15 +855,17 @@
       <x:c r="B12" s="0" t="s"/>
       <x:c r="C12" s="0" t="s"/>
       <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -920,41 +875,37 @@
       <x:c r="B13" s="0" t="s"/>
       <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
     </x:row>
     <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s"/>
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -965,16 +916,16 @@
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -985,16 +936,16 @@
       <x:c r="C16" s="0" t="s"/>
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1004,37 +955,41 @@
       <x:c r="B17" s="0" t="s"/>
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="A18" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1044,17 +999,15 @@
       <x:c r="B19" s="0" t="s"/>
       <x:c r="C19" s="0" t="s"/>
       <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
+      <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1066,572 +1019,16 @@
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s"/>
       <x:c r="F20" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s"/>
-      <x:c r="B21" s="0" t="s"/>
-      <x:c r="C21" s="0" t="s"/>
-      <x:c r="D21" s="0" t="s"/>
-      <x:c r="E21" s="0" t="s"/>
-      <x:c r="F21" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s"/>
-      <x:c r="J21" s="0" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s"/>
-      <x:c r="B22" s="0" t="s"/>
-      <x:c r="C22" s="0" t="s"/>
-      <x:c r="D22" s="0" t="s"/>
-      <x:c r="E22" s="0" t="s"/>
-      <x:c r="F22" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s"/>
-      <x:c r="J22" s="0" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s"/>
-      <x:c r="F23" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s"/>
-      <x:c r="J23" s="0" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="0" t="s"/>
-      <x:c r="B24" s="0" t="s"/>
-      <x:c r="C24" s="0" t="s"/>
-      <x:c r="D24" s="0" t="s"/>
-      <x:c r="E24" s="0" t="s"/>
-      <x:c r="F24" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I24" s="0" t="s"/>
-      <x:c r="J24" s="0" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:10">
-      <x:c r="A25" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s"/>
-      <x:c r="F25" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="s"/>
-      <x:c r="J25" s="0" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="0" t="s"/>
-      <x:c r="B26" s="0" t="s"/>
-      <x:c r="C26" s="0" t="s"/>
-      <x:c r="D26" s="0" t="s"/>
-      <x:c r="E26" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G26" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I26" s="0" t="s"/>
-      <x:c r="J26" s="0" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:10">
-      <x:c r="A27" s="0" t="s"/>
-      <x:c r="B27" s="0" t="s"/>
-      <x:c r="C27" s="0" t="s"/>
-      <x:c r="D27" s="0" t="s"/>
-      <x:c r="E27" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G27" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s"/>
-      <x:c r="J27" s="0" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:10">
-      <x:c r="A28" s="0" t="s"/>
-      <x:c r="B28" s="0" t="s"/>
-      <x:c r="C28" s="0" t="s"/>
-      <x:c r="D28" s="0" t="s"/>
-      <x:c r="E28" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s"/>
-      <x:c r="J28" s="0" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:10">
-      <x:c r="A29" s="0" t="s"/>
-      <x:c r="B29" s="0" t="s"/>
-      <x:c r="C29" s="0" t="s"/>
-      <x:c r="D29" s="0" t="s"/>
-      <x:c r="E29" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I29" s="0" t="s"/>
-      <x:c r="J29" s="0" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:10">
-      <x:c r="A30" s="0" t="s"/>
-      <x:c r="B30" s="0" t="s"/>
-      <x:c r="C30" s="0" t="s"/>
-      <x:c r="D30" s="0" t="s"/>
-      <x:c r="E30" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F30" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I30" s="0" t="s"/>
-      <x:c r="J30" s="0" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:10">
-      <x:c r="A31" s="0" t="s"/>
-      <x:c r="B31" s="0" t="s"/>
-      <x:c r="C31" s="0" t="s"/>
-      <x:c r="D31" s="0" t="s"/>
-      <x:c r="E31" s="0" t="s"/>
-      <x:c r="F31" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G31" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="I31" s="0" t="s"/>
-      <x:c r="J31" s="0" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:10">
-      <x:c r="A32" s="0" t="s"/>
-      <x:c r="B32" s="0" t="s"/>
-      <x:c r="C32" s="0" t="s"/>
-      <x:c r="D32" s="0" t="s"/>
-      <x:c r="E32" s="0" t="s"/>
-      <x:c r="F32" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G32" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H32" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="I32" s="0" t="s"/>
-      <x:c r="J32" s="0" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:10">
-      <x:c r="A33" s="0" t="s"/>
-      <x:c r="B33" s="0" t="s"/>
-      <x:c r="C33" s="0" t="s"/>
-      <x:c r="D33" s="0" t="s"/>
-      <x:c r="E33" s="0" t="s"/>
-      <x:c r="F33" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G33" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I33" s="0" t="s"/>
-      <x:c r="J33" s="0" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:10">
-      <x:c r="A34" s="0" t="s"/>
-      <x:c r="B34" s="0" t="s"/>
-      <x:c r="C34" s="0" t="s"/>
-      <x:c r="D34" s="0" t="s"/>
-      <x:c r="E34" s="0" t="s"/>
-      <x:c r="F34" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="G34" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="I34" s="0" t="s"/>
-      <x:c r="J34" s="0" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:10">
-      <x:c r="A35" s="0" t="s"/>
-      <x:c r="B35" s="0" t="s"/>
-      <x:c r="C35" s="0" t="s"/>
-      <x:c r="D35" s="0" t="s"/>
-      <x:c r="E35" s="0" t="s"/>
-      <x:c r="F35" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G35" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I35" s="0" t="s"/>
-      <x:c r="J35" s="0" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:10">
-      <x:c r="A36" s="0" t="s"/>
-      <x:c r="B36" s="0" t="s"/>
-      <x:c r="C36" s="0" t="s"/>
-      <x:c r="D36" s="0" t="s"/>
-      <x:c r="E36" s="0" t="s"/>
-      <x:c r="F36" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I36" s="0" t="s"/>
-      <x:c r="J36" s="0" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:10">
-      <x:c r="A37" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E37" s="0" t="s"/>
-      <x:c r="F37" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I37" s="0" t="s"/>
-      <x:c r="J37" s="0" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:10">
-      <x:c r="A38" s="0" t="s"/>
-      <x:c r="B38" s="0" t="s"/>
-      <x:c r="C38" s="0" t="s"/>
-      <x:c r="D38" s="0" t="s"/>
-      <x:c r="E38" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F38" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G38" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I38" s="0" t="s"/>
-      <x:c r="J38" s="0" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:10">
-      <x:c r="A39" s="0" t="s"/>
-      <x:c r="B39" s="0" t="s"/>
-      <x:c r="C39" s="0" t="s"/>
-      <x:c r="D39" s="0" t="s"/>
-      <x:c r="E39" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F39" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G39" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I39" s="0" t="s"/>
-      <x:c r="J39" s="0" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:10">
-      <x:c r="A40" s="0" t="s"/>
-      <x:c r="B40" s="0" t="s"/>
-      <x:c r="C40" s="0" t="s"/>
-      <x:c r="D40" s="0" t="s"/>
-      <x:c r="E40" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F40" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G40" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I40" s="0" t="s"/>
-      <x:c r="J40" s="0" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:10">
-      <x:c r="A41" s="0" t="s"/>
-      <x:c r="B41" s="0" t="s"/>
-      <x:c r="C41" s="0" t="s"/>
-      <x:c r="D41" s="0" t="s"/>
-      <x:c r="E41" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F41" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G41" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I41" s="0" t="s"/>
-      <x:c r="J41" s="0" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:10">
-      <x:c r="A42" s="0" t="s"/>
-      <x:c r="B42" s="0" t="s"/>
-      <x:c r="C42" s="0" t="s"/>
-      <x:c r="D42" s="0" t="s"/>
-      <x:c r="E42" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G42" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I42" s="0" t="s"/>
-      <x:c r="J42" s="0" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:10">
-      <x:c r="A43" s="0" t="s"/>
-      <x:c r="B43" s="0" t="s"/>
-      <x:c r="C43" s="0" t="s"/>
-      <x:c r="D43" s="0" t="s"/>
-      <x:c r="E43" s="0" t="s"/>
-      <x:c r="F43" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G43" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="I43" s="0" t="s"/>
-      <x:c r="J43" s="0" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:10">
-      <x:c r="A44" s="0" t="s"/>
-      <x:c r="B44" s="0" t="s"/>
-      <x:c r="C44" s="0" t="s"/>
-      <x:c r="D44" s="0" t="s"/>
-      <x:c r="E44" s="0" t="s"/>
-      <x:c r="F44" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G44" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H44" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="I44" s="0" t="s"/>
-      <x:c r="J44" s="0" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:10">
-      <x:c r="A45" s="0" t="s"/>
-      <x:c r="B45" s="0" t="s"/>
-      <x:c r="C45" s="0" t="s"/>
-      <x:c r="D45" s="0" t="s"/>
-      <x:c r="E45" s="0" t="s"/>
-      <x:c r="F45" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G45" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H45" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I45" s="0" t="s"/>
-      <x:c r="J45" s="0" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:10">
-      <x:c r="A46" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C46" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D46" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E46" s="0" t="s"/>
-      <x:c r="F46" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G46" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H46" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I46" s="0" t="s"/>
-      <x:c r="J46" s="0" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:10">
-      <x:c r="A47" s="0" t="s"/>
-      <x:c r="B47" s="0" t="s"/>
-      <x:c r="C47" s="0" t="s"/>
-      <x:c r="D47" s="0" t="s"/>
-      <x:c r="E47" s="0" t="s"/>
-      <x:c r="F47" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G47" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H47" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I47" s="0" t="s"/>
-      <x:c r="J47" s="0" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:10">
-      <x:c r="A48" s="0" t="s"/>
-      <x:c r="B48" s="0" t="s"/>
-      <x:c r="C48" s="0" t="s"/>
-      <x:c r="D48" s="0" t="s"/>
-      <x:c r="E48" s="0" t="s"/>
-      <x:c r="F48" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G48" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H48" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I48" s="0" t="s"/>
-      <x:c r="J48" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
